--- a/StructureDefinition-profile-GraphDefinition.xlsx
+++ b/StructureDefinition-profile-GraphDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7050339-06:00</t>
+    <t>2026-02-09T22:05:43.1422386-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,144 @@
     <t>GraphDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.versionAlgorithm[x]` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the capability statement.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.title` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.copyright|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the graph definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the graph definition.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.copyright` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.copyrightLabel` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:node</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.node from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Potential target for the link.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.node` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>GraphDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -787,10 +893,86 @@
     <t>GraphDefinition.link.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>2</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:sourceId</t>
+  </si>
+  <si>
+    <t>sourceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.sourceId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.sourceId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The source node for this link.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.sourceId` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:targetId</t>
+  </si>
+  <si>
+    <t>targetId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.targetId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.targetId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The target node for this link.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.targetId` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:params</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.params|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.params from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A set of parameters to look up.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.params` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:compartment</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.compartment|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.compartment from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Compartment Consistency Rules.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.compartment` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.link.modifierExtension</t>
@@ -868,15 +1050,18 @@
     <t>Potential target for the link</t>
   </si>
   <si>
-    <t>Potential target for the link.</t>
-  </si>
-  <si>
     <t>GraphDefinition.link.target.id</t>
   </si>
   <si>
     <t>GraphDefinition.link.target.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>GraphDefinition.link.target.modifierExtension</t>
   </si>
   <si>
@@ -895,9 +1080,6 @@
     <t>Criteria for reverse lookup</t>
   </si>
   <si>
-    <t>A set of parameters to look up.</t>
-  </si>
-  <si>
     <t>At least one of the parameters must have the value {ref} which identifies the focus resource.</t>
   </si>
   <si>
@@ -914,9 +1096,6 @@
   </si>
   <si>
     <t>Compartment Consistency Rules</t>
-  </si>
-  <si>
-    <t>Compartment Consistency Rules.</t>
   </si>
   <si>
     <t>GraphDefinition.link.target.compartment.id</t>
@@ -1307,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1318,7 +1497,7 @@
   <cols>
     <col min="1" max="1" width="49.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1326,7 +1505,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.03515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2282,7 +2461,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2301,17 +2480,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2348,16 +2525,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2375,7 +2550,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2392,43 +2567,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2476,7 +2651,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2485,13 +2660,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2505,12 +2680,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2528,23 +2705,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2592,28 +2767,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2621,12 +2796,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2644,19 +2821,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2706,28 +2883,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2738,15 +2915,17 @@
         <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>86</v>
@@ -2758,23 +2937,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2822,19 +2999,19 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -2854,39 +3031,41 @@
         <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2912,13 +3091,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2936,28 +3115,28 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -2965,45 +3144,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3052,28 +3231,28 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3081,14 +3260,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3107,18 +3286,20 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3166,7 +3347,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3184,10 +3365,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3195,10 +3376,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3221,20 +3402,18 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3282,7 +3461,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3300,10 +3479,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3311,10 +3490,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3322,10 +3501,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3337,18 +3516,20 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3396,16 +3577,16 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
@@ -3414,7 +3595,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3425,10 +3606,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3436,7 +3617,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3445,22 +3626,22 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3486,13 +3667,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3510,10 +3691,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3528,10 +3709,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3539,10 +3720,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3553,7 +3734,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3565,19 +3746,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3626,13 +3807,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3644,10 +3825,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3655,21 +3836,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3716,13 +3897,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3740,13 +3921,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3758,10 +3939,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3769,10 +3950,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3792,21 +3973,23 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3854,7 +4037,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3872,21 +4055,21 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM22" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3894,10 +4077,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3909,15 +4092,17 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3942,13 +4127,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3966,13 +4151,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -3984,7 +4169,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3995,10 +4180,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4021,16 +4206,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4080,7 +4265,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4098,7 +4283,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4132,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>240</v>
@@ -4143,8 +4328,12 @@
       <c r="M25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4210,7 +4399,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4221,10 +4410,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4235,7 +4424,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4244,18 +4433,20 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4280,13 +4471,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4310,19 +4501,19 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4333,21 +4524,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4359,16 +4550,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4418,75 +4609,71 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4510,13 +4697,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4534,22 +4721,22 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4563,10 +4750,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4589,16 +4776,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4648,7 +4835,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4677,10 +4864,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4691,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4703,13 +4890,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4760,13 +4947,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4789,10 +4976,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4815,13 +5002,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4872,7 +5059,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4884,10 +5071,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -4901,10 +5088,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4912,10 +5099,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4927,13 +5114,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4972,31 +5159,29 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5013,18 +5198,20 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5039,15 +5226,17 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5096,19 +5285,19 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5125,21 +5314,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5151,15 +5342,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5401,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5217,10 +5410,10 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5237,12 +5430,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5263,15 +5458,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5320,22 +5517,22 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5349,14 +5546,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5375,16 +5574,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5434,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5443,13 +5642,13 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5463,14 +5662,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5489,19 +5688,19 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5749,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5579,10 +5778,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5590,7 +5789,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -5605,15 +5804,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5638,13 +5839,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -5662,10 +5863,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -5691,10 +5892,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5717,17 +5918,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5975,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5805,10 +6004,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5831,13 +6030,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5888,7 +6087,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5917,10 +6116,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5931,7 +6130,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -5943,13 +6142,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6000,13 +6199,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6029,10 +6228,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6055,13 +6254,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6112,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6124,10 +6323,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6141,14 +6340,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6167,17 +6366,15 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6226,7 +6423,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6238,10 +6435,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6255,46 +6452,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6342,22 +6535,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6371,21 +6564,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6397,16 +6590,16 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6432,13 +6625,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6456,22 +6649,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6485,42 +6678,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6544,13 +6741,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -6568,22 +6765,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6597,10 +6794,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6626,10 +6823,10 @@
         <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6656,13 +6853,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6680,7 +6877,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
@@ -6709,10 +6906,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6735,15 +6932,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6792,7 +6991,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6821,10 +7020,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6847,13 +7046,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6904,7 +7103,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6933,10 +7132,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6959,13 +7158,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7016,7 +7215,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7040,6 +7239,1022 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-GraphDefinition.xlsx
+++ b/StructureDefinition-profile-GraphDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1422386-06:00</t>
+    <t>2026-02-17T14:42:26.8190933-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.versionAlgorithm[x]` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.versionAlgorithm[x]` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A short, descriptive, user-friendly title for the capability statement.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.title` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.title` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.extension:copyright</t>
@@ -501,7 +501,7 @@
     <t>A copyright statement relating to the graph definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the graph definition.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.copyright` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.copyright` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.extension:copyrightLabel</t>
@@ -520,7 +520,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.copyrightLabel` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.copyrightLabel` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.extension:node</t>
@@ -539,7 +539,7 @@
     <t>Potential target for the link.</t>
   </si>
   <si>
-    <t>Element `GraphDefinition.node` is will have a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Element `GraphDefinition.node` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.modifierExtension</t>
@@ -893,86 +893,23 @@
     <t>GraphDefinition.link.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>GraphDefinition.link.extension:sourceId</t>
-  </si>
-  <si>
-    <t>sourceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.sourceId|0.0.1-snapshot-3}
+    <t>GraphDefinition.link.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for GraphDefinition.link.sourceId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The source node for this link.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.link.sourceId` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.link.extension:targetId</t>
-  </si>
-  <si>
-    <t>targetId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.targetId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.link.targetId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The target node for this link.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.link.targetId` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.link.extension:params</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.params|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.link.params from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A set of parameters to look up.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.link.params` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.link.extension:compartment</t>
-  </si>
-  <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.compartment|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.link.compartment from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Compartment Consistency Rules.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.link.compartment` is will have a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Cross-version extension for GraphDefinition.link from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link` has is mapped to FHIR R4 element `GraphDefinition.link`, but has no comparisons.</t>
   </si>
   <si>
     <t>GraphDefinition.link.modifierExtension</t>
@@ -1080,6 +1017,9 @@
     <t>Criteria for reverse lookup</t>
   </si>
   <si>
+    <t>A set of parameters to look up.</t>
+  </si>
+  <si>
     <t>At least one of the parameters must have the value {ref} which identifies the focus resource.</t>
   </si>
   <si>
@@ -1096,6 +1036,9 @@
   </si>
   <si>
     <t>Compartment Consistency Rules</t>
+  </si>
+  <si>
+    <t>Compartment Consistency Rules.</t>
   </si>
   <si>
     <t>GraphDefinition.link.target.compartment.id</t>
@@ -1486,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN59"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1505,7 +1448,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5099,7 +5042,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5169,7 +5112,7 @@
         <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5198,23 +5141,23 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>280</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5226,16 +5169,16 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5285,7 +5228,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5314,46 +5257,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5401,7 +5344,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5410,13 +5353,13 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5430,14 +5373,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5458,16 +5399,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5517,19 +5458,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5546,14 +5487,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5562,7 +5501,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5574,17 +5513,15 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5633,19 +5570,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5662,46 +5599,42 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5749,22 +5682,22 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5778,10 +5711,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5807,14 +5740,12 @@
         <v>184</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5863,7 +5794,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5892,10 +5823,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5921,10 +5852,10 @@
         <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5975,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6004,10 +5935,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6018,7 +5949,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6030,13 +5961,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6087,13 +6018,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6116,10 +6047,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6145,10 +6076,10 @@
         <v>184</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6199,7 +6130,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6211,10 +6142,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6228,21 +6159,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6254,15 +6185,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6311,22 +6244,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6340,14 +6273,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6360,22 +6293,26 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6423,7 +6360,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6435,10 +6372,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6452,10 +6389,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6463,7 +6400,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6478,13 +6415,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6511,13 +6448,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6535,10 +6472,10 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>86</v>
@@ -6547,10 +6484,10 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6564,21 +6501,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6590,16 +6527,16 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6649,22 +6586,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6678,46 +6615,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6765,22 +6698,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6794,10 +6727,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6805,10 +6738,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6820,13 +6753,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6853,13 +6786,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6877,13 +6810,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6906,10 +6839,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6935,14 +6868,12 @@
         <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6991,7 +6922,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7003,10 +6934,10 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7020,21 +6951,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7046,15 +6977,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7103,22 +7036,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7132,14 +7065,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7152,22 +7085,26 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7215,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7227,10 +7164,10 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7244,10 +7181,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7255,7 +7192,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7270,15 +7207,17 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7303,13 +7242,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7327,10 +7266,10 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
@@ -7339,10 +7278,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7356,21 +7295,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7382,17 +7321,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7417,13 +7354,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7441,22 +7378,22 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7470,46 +7407,42 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7533,13 +7466,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7557,22 +7490,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7586,10 +7519,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7597,7 +7530,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7612,17 +7545,15 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7647,13 +7578,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7671,10 +7602,10 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7700,10 +7631,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7711,7 +7642,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
@@ -7726,13 +7657,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7759,13 +7690,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7783,10 +7714,10 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>86</v>
@@ -7812,10 +7743,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7823,10 +7754,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7838,13 +7769,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7871,13 +7802,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -7895,13 +7826,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -7919,342 +7850,6 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-GraphDefinition.xlsx
+++ b/StructureDefinition-profile-GraphDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="363">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8190933-06:00</t>
+    <t>2026-02-20T11:59:20.8219011-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/GraphDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/GraphDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,103 +443,127 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>GraphDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t>GraphDefinition.extension:node</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for GraphDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.versionAlgorithm[x]` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Cross-version extension for GraphDefinition.node from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Potential target for the link.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.node` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>GraphDefinition.extension:copyright</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyright}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.copyright from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
+Element `GraphDefinition.copyright` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `GraphDefinition.copyrightLabel` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-identifier}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
+Element `GraphDefinition.identifier` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
     <t>GraphDefinition.extension:title</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.title|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-title}
 </t>
   </si>
   <si>
     <t>Cross-version extension for GraphDefinition.title from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>A short, descriptive, user-friendly title for the capability statement.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.title` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.copyright|0.0.1-snapshot-3}
+    <t>A short, descriptive, user-friendly title for the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `GraphDefinition.title` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for GraphDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the graph definition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the graph definition.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.copyright` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.copyrightLabel` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:node</t>
-  </si>
-  <si>
-    <t>node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.node from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Potential target for the link.</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.node` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+    <t>Cross-version extension for GraphDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `GraphDefinition.versionAlgorithm[x]` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.modifierExtension</t>
@@ -902,7 +926,7 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link}
 </t>
   </si>
   <si>
@@ -1429,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1448,7 +1472,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2523,7 +2547,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2719,7 +2743,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -2835,7 +2859,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>137</v>
@@ -2871,7 +2895,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2951,7 +2975,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>137</v>
@@ -2987,7 +3011,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3067,7 +3091,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>137</v>
@@ -3090,43 +3114,43 @@
         <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>174</v>
       </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3189,7 +3213,7 @@
         <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3203,33 +3227,33 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>177</v>
@@ -3290,28 +3314,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3319,10 +3343,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3345,18 +3369,20 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3404,7 +3430,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3422,10 +3448,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3433,10 +3459,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3444,7 +3470,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3459,7 +3485,7 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>191</v>
@@ -3470,9 +3496,7 @@
       <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3520,16 +3544,16 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
@@ -3538,10 +3562,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3569,13 +3593,13 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>197</v>
@@ -3586,7 +3610,9 @@
       <c r="N19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3610,13 +3636,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3643,7 +3669,7 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>98</v>
@@ -3652,10 +3678,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3663,10 +3689,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3674,7 +3700,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -3683,26 +3709,24 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3726,13 +3750,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3750,10 +3774,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -3768,10 +3792,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3779,14 +3803,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3805,18 +3829,20 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3864,7 +3890,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3882,10 +3908,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3893,14 +3919,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3919,7 +3945,7 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>221</v>
@@ -3930,9 +3956,7 @@
       <c r="N22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3980,7 +4004,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3998,10 +4022,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4009,10 +4033,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4023,7 +4047,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4035,18 +4059,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4094,13 +4120,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4112,10 +4138,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4137,7 +4163,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4146,7 +4172,7 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>234</v>
@@ -4214,7 +4240,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4251,7 +4277,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4260,7 +4286,7 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>240</v>
@@ -4274,9 +4300,7 @@
       <c r="N25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4330,7 +4354,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4342,7 +4366,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4353,10 +4377,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4379,18 +4403,20 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4414,13 +4440,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4438,7 +4464,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4456,7 +4482,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4467,10 +4493,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4481,7 +4507,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4490,19 +4516,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4528,13 +4554,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4552,13 +4578,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4570,21 +4596,21 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4592,7 +4618,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4604,18 +4630,20 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4640,13 +4668,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4664,10 +4692,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -4682,21 +4710,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4704,7 +4732,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4716,10 +4744,10 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>269</v>
@@ -4727,9 +4755,7 @@
       <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4754,13 +4780,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4778,10 +4804,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4807,10 +4833,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4821,7 +4847,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4833,15 +4859,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4890,13 +4918,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4919,10 +4947,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4933,7 +4961,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4945,13 +4973,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5002,22 +5030,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5031,10 +5059,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5045,7 +5073,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5057,13 +5085,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5102,32 +5130,34 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5141,14 +5171,12 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5169,17 +5197,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5216,19 +5242,17 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5237,7 +5261,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>137</v>
@@ -5257,14 +5281,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5277,26 +5303,24 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5344,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5353,13 +5377,13 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5373,44 +5397,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5458,22 +5484,22 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5487,10 +5513,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5513,15 +5539,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5570,7 +5598,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5599,10 +5627,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5625,13 +5653,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5682,7 +5710,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5711,10 +5739,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5737,13 +5765,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5794,7 +5822,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5823,10 +5851,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5849,13 +5877,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5906,7 +5934,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5935,10 +5963,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5949,7 +5977,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5961,13 +5989,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6018,13 +6046,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6047,10 +6075,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6061,7 +6089,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6073,13 +6101,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6130,22 +6158,22 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6159,21 +6187,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6185,17 +6213,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6244,19 +6270,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>84</v>
@@ -6273,14 +6299,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6293,26 +6319,24 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6360,7 +6384,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6375,7 +6399,7 @@
         <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6389,42 +6413,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6448,13 +6476,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6472,22 +6500,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6501,10 +6529,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6512,7 +6540,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -6527,17 +6555,15 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6562,13 +6588,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6586,10 +6612,10 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>86</v>
@@ -6615,10 +6641,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6641,15 +6667,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6726,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6727,10 +6755,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6741,7 +6769,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6753,13 +6781,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6810,13 +6838,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -6839,10 +6867,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6853,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -6865,13 +6893,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6922,22 +6950,22 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -6951,21 +6979,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -6977,17 +7005,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7036,19 +7062,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>84</v>
@@ -7065,14 +7091,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7085,26 +7111,24 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7152,7 +7176,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7167,7 +7191,7 @@
         <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7181,44 +7205,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7242,13 +7268,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7266,22 +7292,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7329,7 +7355,9 @@
       <c r="M52" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7354,13 +7382,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7407,10 +7435,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7436,10 +7464,10 @@
         <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7466,13 +7494,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7490,7 +7518,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7519,10 +7547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7530,7 +7558,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7545,13 +7573,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7578,13 +7606,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7602,10 +7630,10 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7631,10 +7659,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7657,13 +7685,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7714,7 +7742,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7743,10 +7771,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7757,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7769,13 +7797,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7826,13 +7854,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -7850,6 +7878,118 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-GraphDefinition.xlsx
+++ b/StructureDefinition-profile-GraphDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8219011-06:00</t>
+    <t>2026-02-21T13:36:54.24079-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/GraphDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/GraphDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>node</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.node|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -464,106 +464,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:copyright</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyright}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.copyright from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the artifact and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.copyright`: `http://hl7.org/fhir/StructureDefinition/artifact-copyright`.
-Element `GraphDefinition.copyright` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `GraphDefinition.copyrightLabel` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-identifier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
-Element `GraphDefinition.identifier` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-title}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
-Element `GraphDefinition.title` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
-  </si>
-  <si>
-    <t>GraphDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for GraphDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `GraphDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `GraphDefinition.versionAlgorithm[x]` has a context of GraphDefinition based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.modifierExtension</t>
@@ -917,23 +817,86 @@
     <t>GraphDefinition.link.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>GraphDefinition.link.extension:link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link}
+    <t>GraphDefinition.link.extension:sourceId</t>
+  </si>
+  <si>
+    <t>sourceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.sourceId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for GraphDefinition.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `GraphDefinition.link` has is mapped to FHIR R4 element `GraphDefinition.link`, but has no comparisons.</t>
+    <t>Cross-version extension for GraphDefinition.link.sourceId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The source node for this link.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.sourceId` has a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:targetId</t>
+  </si>
+  <si>
+    <t>targetId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.targetId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.targetId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The target node for this link.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.targetId` has a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:params</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.params|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.params from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A set of parameters to look up.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.params` has a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
+  </si>
+  <si>
+    <t>GraphDefinition.link.extension:compartment</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-GraphDefinition.link.compartment|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for GraphDefinition.link.compartment from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Compartment Consistency Rules.</t>
+  </si>
+  <si>
+    <t>Element `GraphDefinition.link.compartment` has a context of GraphDefinition.link based on following the parent source element upwards and mapping to `GraphDefinition`.</t>
   </si>
   <si>
     <t>GraphDefinition.link.modifierExtension</t>
@@ -1041,9 +1004,6 @@
     <t>Criteria for reverse lookup</t>
   </si>
   <si>
-    <t>A set of parameters to look up.</t>
-  </si>
-  <si>
     <t>At least one of the parameters must have the value {ref} which identifies the focus resource.</t>
   </si>
   <si>
@@ -1060,9 +1020,6 @@
   </si>
   <si>
     <t>Compartment Consistency Rules</t>
-  </si>
-  <si>
-    <t>Compartment Consistency Rules.</t>
   </si>
   <si>
     <t>GraphDefinition.link.target.compartment.id</t>
@@ -1453,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1464,7 +1421,7 @@
   <cols>
     <col min="1" max="1" width="49.17578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.96875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1472,7 +1429,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2650,43 +2607,43 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2734,7 +2691,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2749,7 +2706,7 @@
         <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -2763,14 +2720,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>152</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2788,21 +2743,23 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2850,28 +2807,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2879,14 +2836,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2895,7 +2850,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2904,19 +2859,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2966,28 +2921,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -2995,20 +2950,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>
@@ -3020,21 +2973,23 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3082,19 +3037,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3111,20 +3066,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3133,22 +3086,22 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3174,13 +3127,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3198,28 +3151,28 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3227,45 +3180,45 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3320,22 +3273,22 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3343,14 +3296,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3369,20 +3322,18 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3430,7 +3381,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3448,10 +3399,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3459,10 +3410,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3485,18 +3436,20 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3544,7 +3497,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3562,10 +3515,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3573,10 +3526,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3584,10 +3537,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3599,20 +3552,18 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3660,16 +3611,16 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>98</v>
@@ -3678,7 +3629,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3689,10 +3640,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3700,7 +3651,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -3709,22 +3660,22 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3750,13 +3701,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3774,10 +3725,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -3792,10 +3743,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3803,10 +3754,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3817,7 +3768,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3829,19 +3780,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3890,13 +3841,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3908,10 +3859,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3919,21 +3870,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3945,16 +3896,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3980,13 +3931,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4004,13 +3955,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4022,10 +3973,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4033,10 +3984,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4056,23 +4007,21 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4120,7 +4069,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4138,21 +4087,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4160,10 +4109,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4175,17 +4124,15 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4210,13 +4157,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4234,13 +4181,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4252,7 +4199,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4263,10 +4210,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4289,16 +4236,16 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4348,7 +4295,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4366,7 +4313,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4377,10 +4324,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4400,23 +4347,19 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4464,7 +4407,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4482,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4507,7 +4450,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4516,20 +4459,18 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4554,13 +4495,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4578,25 +4519,25 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4607,10 +4548,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4618,10 +4559,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4633,17 +4574,15 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4680,53 +4619,53 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4744,18 +4683,20 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4780,13 +4721,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4804,19 +4745,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4833,18 +4774,20 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -4859,16 +4802,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4918,19 +4861,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4947,12 +4890,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4961,7 +4906,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4973,15 +4918,17 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5030,7 +4977,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5039,10 +4986,10 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5059,12 +5006,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5073,7 +5022,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5085,15 +5034,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5142,22 +5093,22 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5171,14 +5122,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5191,22 +5142,26 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5242,14 +5197,16 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>287</v>
@@ -5267,7 +5224,7 @@
         <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5284,11 +5241,9 @@
         <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5297,7 +5252,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5309,16 +5264,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5368,19 +5323,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5397,46 +5352,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5484,22 +5435,22 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5513,10 +5464,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5539,17 +5490,15 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5598,7 +5547,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5627,10 +5576,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5653,13 +5602,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5710,7 +5659,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5739,10 +5688,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5765,13 +5714,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5822,7 +5771,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5851,10 +5800,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5865,7 +5814,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5877,13 +5826,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5934,13 +5883,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -5963,10 +5912,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5989,13 +5938,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6046,7 +5995,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6058,10 +6007,10 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6075,14 +6024,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6101,15 +6050,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6158,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6170,10 +6121,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6187,42 +6138,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6270,22 +6225,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6299,21 +6254,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6325,17 +6280,15 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6360,13 +6313,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6384,22 +6337,22 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6413,46 +6366,44 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6500,22 +6451,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6529,10 +6480,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6540,7 +6491,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -6555,13 +6506,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6588,13 +6539,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6612,10 +6563,10 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>86</v>
@@ -6641,10 +6592,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6655,7 +6606,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6667,17 +6618,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6726,13 +6675,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6755,10 +6704,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6781,13 +6730,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6838,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6850,10 +6799,10 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -6867,14 +6816,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6893,15 +6842,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6950,7 +6901,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6962,10 +6913,10 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -6979,42 +6930,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7062,22 +7017,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7091,21 +7046,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7117,16 +7072,16 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7152,13 +7107,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7176,22 +7131,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7205,46 +7160,42 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7268,13 +7219,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7292,22 +7243,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7321,10 +7272,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7350,14 +7301,12 @@
         <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7382,13 +7331,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7406,7 +7355,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
@@ -7435,10 +7384,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7446,7 +7395,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7461,13 +7410,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7494,13 +7443,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7518,10 +7467,10 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>86</v>
@@ -7547,10 +7496,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7558,7 +7507,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7573,13 +7522,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7606,13 +7555,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7630,10 +7579,10 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7659,10 +7608,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7673,7 +7622,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7685,13 +7634,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7742,13 +7691,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -7766,230 +7715,6 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
         <v>77</v>
       </c>
     </row>
